--- a/cibi-backend/src/main/resources/测试数据.xlsx
+++ b/cibi-backend/src/main/resources/测试数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_2024_CODE\cibi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87652392-BF26-468E-9B90-64F3588CE1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3237A885-B994-46ED-8419-D5708D582674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="768" windowWidth="18876" windowHeight="10068" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -486,6 +486,30 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
